--- a/文档用表格.xlsx
+++ b/文档用表格.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KVM_prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\KVM\KVM_prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S7电流预估" sheetId="1" r:id="rId1"/>
+    <sheet name="SPX1117计算器" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>供电电平</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +80,14 @@
   </si>
   <si>
     <t>3.00A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -520,4 +529,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1250</v>
+      </c>
+      <c r="C3">
+        <f>B3/(12.5+0.0005*B3)</f>
+        <v>95.238095238095241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <f>12.5*C4/(1-0.0005*C4)</f>
+        <v>1075.6192959582791</v>
+      </c>
+      <c r="C4">
+        <v>82.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档用表格.xlsx
+++ b/文档用表格.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S7电流预估" sheetId="1" r:id="rId1"/>
     <sheet name="SPX1117计算器" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>供电电平</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +89,180 @@
   </si>
   <si>
     <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG1</t>
+  </si>
+  <si>
+    <t>CONFIG2</t>
+  </si>
+  <si>
+    <t>CONFIG3</t>
+  </si>
+  <si>
+    <t>CONFIG4</t>
+  </si>
+  <si>
+    <t>CONFIG5</t>
+  </si>
+  <si>
+    <t>CONFIG6</t>
+  </si>
+  <si>
+    <t>PHYADR[2:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIGURATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENA_PAUSE/PHYADR[4:3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANEG[3:1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANEG[0]/ENA_XC/DIS_125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWCFG_MODE[2:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS_FC/DIS_SLEEP/HWCFG_MODE[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEL_TWSI/INT_POL/75_50OHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabel PAUSE frame,PHYADR=00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_LINK1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiber,force 1000BASE-X full-duplex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_LINK100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crossover Enable,Disable 125MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_DUPLEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYADR=111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_LINK10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable FC/Copper,Disable Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMII to Fiber 0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDI/MDC,INT low,50 ohm serdes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +295,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -135,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -158,13 +349,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +487,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,4 +922,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>